--- a/Gantt Chart(not finished).xlsx
+++ b/Gantt Chart(not finished).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Year 2\COMP1597 - Digital Media Production\CW1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Year 2\COMP1597 - Digital Media Production\CW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{AF2D1CEF-0847-4A10-946A-83FD6F33A113}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38600A4-713A-4242-999D-3B54D4DBBD40}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
   <si>
     <t>Task 3</t>
   </si>
@@ -200,9 +201,6 @@
     <t>Think of an idea for the group project</t>
   </si>
   <si>
-    <t>Project Management/Trello/Wikis</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -222,6 +220,21 @@
   </si>
   <si>
     <t>Group: Aaron, Sharna, Jacob, Dominic</t>
+  </si>
+  <si>
+    <t>Project Management/Wikis</t>
+  </si>
+  <si>
+    <t>Setup a wiki on GitHub</t>
+  </si>
+  <si>
+    <t>Sharna</t>
+  </si>
+  <si>
+    <t>Create a Gantt Chart</t>
+  </si>
+  <si>
+    <t>Aaron</t>
   </si>
 </sst>
 </file>
@@ -581,7 +594,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -737,6 +750,24 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -746,36 +777,21 @@
     <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -793,805 +809,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="90">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1718,15 +936,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="89"/>
-      <tableStyleElement type="headerRow" dxfId="88"/>
-      <tableStyleElement type="totalRow" dxfId="87"/>
-      <tableStyleElement type="firstColumn" dxfId="86"/>
-      <tableStyleElement type="lastColumn" dxfId="85"/>
-      <tableStyleElement type="firstRowStripe" dxfId="84"/>
-      <tableStyleElement type="secondRowStripe" dxfId="83"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="82"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="81"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2085,11 +1303,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BZ39"/>
+  <dimension ref="A1:BZ37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2124,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="40"/>
     </row>
@@ -2135,137 +1353,137 @@
       <c r="B3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="58">
+      <c r="D3" s="65"/>
+      <c r="E3" s="68">
         <v>43378</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="61">
         <f>I5</f>
         <v>43374</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="55">
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="61">
         <f>P5</f>
         <v>43381</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="55">
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="61">
         <f>W5</f>
         <v>43388</v>
       </c>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="55">
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="61">
         <f>AD5</f>
         <v>43395</v>
       </c>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="55">
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="61">
         <f>AK5</f>
         <v>43402</v>
       </c>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="55">
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="61">
         <f>AR5</f>
         <v>43409</v>
       </c>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="55">
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="61">
         <f>AY5</f>
         <v>43416</v>
       </c>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="56"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="57"/>
-      <c r="BF4" s="55">
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="62"/>
+      <c r="BB4" s="62"/>
+      <c r="BC4" s="62"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="61">
         <f>BF5</f>
         <v>43423</v>
       </c>
-      <c r="BG4" s="56"/>
-      <c r="BH4" s="56"/>
-      <c r="BI4" s="56"/>
-      <c r="BJ4" s="56"/>
-      <c r="BK4" s="56"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="55">
+      <c r="BG4" s="62"/>
+      <c r="BH4" s="62"/>
+      <c r="BI4" s="62"/>
+      <c r="BJ4" s="62"/>
+      <c r="BK4" s="62"/>
+      <c r="BL4" s="63"/>
+      <c r="BM4" s="61">
         <f>BM5</f>
         <v>43430</v>
       </c>
-      <c r="BN4" s="56"/>
-      <c r="BO4" s="56"/>
-      <c r="BP4" s="56"/>
-      <c r="BQ4" s="56"/>
-      <c r="BR4" s="56"/>
-      <c r="BS4" s="57"/>
-      <c r="BT4" s="55">
+      <c r="BN4" s="62"/>
+      <c r="BO4" s="62"/>
+      <c r="BP4" s="62"/>
+      <c r="BQ4" s="62"/>
+      <c r="BR4" s="62"/>
+      <c r="BS4" s="63"/>
+      <c r="BT4" s="61">
         <f>BT5</f>
         <v>43437</v>
       </c>
-      <c r="BU4" s="56"/>
-      <c r="BV4" s="56"/>
-      <c r="BW4" s="56"/>
-      <c r="BX4" s="56"/>
-      <c r="BY4" s="56"/>
-      <c r="BZ4" s="57"/>
+      <c r="BU4" s="62"/>
+      <c r="BV4" s="62"/>
+      <c r="BW4" s="62"/>
+      <c r="BX4" s="62"/>
+      <c r="BY4" s="62"/>
+      <c r="BZ4" s="63"/>
     </row>
     <row r="5" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43374</v>
@@ -2715,7 +1933,7 @@
         <v>M</v>
       </c>
       <c r="AS6" s="12" t="str">
-        <f t="shared" ref="AS6:BS6" si="15">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:BL6" si="15">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="12" t="str">
@@ -2945,7 +2163,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H39" si="17">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H37" si="17">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -3023,10 +2241,10 @@
       <c r="A9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="19">
@@ -3121,7 +2339,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="21"/>
@@ -3205,10 +2423,10 @@
     </row>
     <row r="11" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39"/>
-      <c r="B11" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="24">
@@ -3298,20 +2516,20 @@
     </row>
     <row r="12" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
-      <c r="B12" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>32</v>
+      <c r="B12" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.1</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="e">
@@ -3391,20 +2609,20 @@
     </row>
     <row r="13" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
-      <c r="B13" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>32</v>
+      <c r="B13" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="46">
+        <v>43427</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="e">
@@ -3484,25 +2702,17 @@
     </row>
     <row r="14" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>32</v>
-      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14" t="e">
+      <c r="H14" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
@@ -3520,7 +2730,7 @@
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
-      <c r="Y14" s="36"/>
+      <c r="Y14" s="35"/>
       <c r="Z14" s="35"/>
       <c r="AA14" s="35"/>
       <c r="AB14" s="35"/>
@@ -3577,20 +2787,20 @@
     </row>
     <row r="15" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
-      <c r="B15" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>32</v>
+      <c r="B15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="e">
@@ -3672,17 +2882,25 @@
       <c r="A16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="14" t="str">
+      <c r="H16" s="14" t="e">
         <f t="shared" si="17"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
@@ -3758,19 +2976,19 @@
     <row r="17" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="e">
@@ -3851,19 +3069,19 @@
     <row r="18" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="e">
@@ -3944,19 +3162,19 @@
     <row r="19" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>31</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="e">
@@ -4036,25 +3254,17 @@
     </row>
     <row r="20" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
-      <c r="B20" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>32</v>
-      </c>
+      <c r="B20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="14" t="e">
+      <c r="H20" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
@@ -4129,20 +3339,20 @@
     </row>
     <row r="21" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
-      <c r="B21" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>32</v>
+      <c r="B21" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>31</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14" t="e">
@@ -4224,17 +3434,25 @@
       <c r="A22" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="B22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="14" t="e">
         <f t="shared" si="17"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
@@ -4310,19 +3528,19 @@
     <row r="23" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>31</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14" t="e">
@@ -4403,19 +3621,19 @@
     <row r="24" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="e">
@@ -4496,19 +3714,19 @@
     <row r="25" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="67" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>31</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14" t="e">
@@ -4588,25 +3806,17 @@
     </row>
     <row r="26" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
-      <c r="B26" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>32</v>
-      </c>
+      <c r="B26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="14" t="e">
+      <c r="H26" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
@@ -4681,20 +3891,20 @@
     </row>
     <row r="27" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
-      <c r="B27" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>32</v>
+      <c r="B27" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14" t="e">
@@ -4776,17 +3986,25 @@
       <c r="A28" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>31</v>
+      </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14" t="str">
+      <c r="H28" s="14" t="e">
         <f t="shared" si="17"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
@@ -4863,20 +4081,20 @@
       <c r="A29" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>32</v>
+      <c r="B29" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>31</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14" t="e">
@@ -4955,20 +4173,20 @@
       <c r="BZ29" s="35"/>
     </row>
     <row r="30" spans="1:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>32</v>
+      <c r="B30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14" t="e">
@@ -5047,20 +4265,20 @@
       <c r="BZ30" s="35"/>
     </row>
     <row r="31" spans="1:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>32</v>
+      <c r="B31" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>31</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14" t="e">
@@ -5139,25 +4357,17 @@
       <c r="BZ31" s="35"/>
     </row>
     <row r="32" spans="1:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>32</v>
-      </c>
+      <c r="B32" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14" t="e">
+      <c r="H32" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
@@ -5231,20 +4441,20 @@
       <c r="BZ32" s="35"/>
     </row>
     <row r="33" spans="2:78" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>32</v>
+      <c r="B33" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>31</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14" t="e">
@@ -5323,17 +4533,25 @@
       <c r="BZ33" s="35"/>
     </row>
     <row r="34" spans="2:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
+      <c r="B34" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>31</v>
+      </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14" t="str">
+      <c r="H34" s="14" t="e">
         <f t="shared" si="17"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
@@ -5407,20 +4625,20 @@
       <c r="BZ34" s="35"/>
     </row>
     <row r="35" spans="2:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>32</v>
+      <c r="B35" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14" t="e">
@@ -5499,20 +4717,20 @@
       <c r="BZ35" s="35"/>
     </row>
     <row r="36" spans="2:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>32</v>
+      <c r="B36" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14" t="e">
@@ -5591,20 +4809,20 @@
       <c r="BZ36" s="35"/>
     </row>
     <row r="37" spans="2:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>32</v>
+      <c r="B37" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14" t="e">
@@ -5682,194 +4900,10 @@
       <c r="BY37" s="35"/>
       <c r="BZ37" s="35"/>
     </row>
-    <row r="38" spans="2:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="35"/>
-      <c r="AQ38" s="35"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="35"/>
-      <c r="AU38" s="35"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="35"/>
-      <c r="AX38" s="35"/>
-      <c r="AY38" s="35"/>
-      <c r="AZ38" s="35"/>
-      <c r="BA38" s="35"/>
-      <c r="BB38" s="35"/>
-      <c r="BC38" s="35"/>
-      <c r="BD38" s="35"/>
-      <c r="BE38" s="35"/>
-      <c r="BF38" s="35"/>
-      <c r="BG38" s="35"/>
-      <c r="BH38" s="35"/>
-      <c r="BI38" s="35"/>
-      <c r="BJ38" s="35"/>
-      <c r="BK38" s="35"/>
-      <c r="BL38" s="35"/>
-      <c r="BM38" s="35"/>
-      <c r="BN38" s="35"/>
-      <c r="BO38" s="35"/>
-      <c r="BP38" s="35"/>
-      <c r="BQ38" s="35"/>
-      <c r="BR38" s="35"/>
-      <c r="BS38" s="35"/>
-      <c r="BT38" s="35"/>
-      <c r="BU38" s="35"/>
-      <c r="BV38" s="35"/>
-      <c r="BW38" s="35"/>
-      <c r="BX38" s="35"/>
-      <c r="BY38" s="35"/>
-      <c r="BZ38" s="35"/>
-    </row>
-    <row r="39" spans="2:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="35"/>
-      <c r="AM39" s="35"/>
-      <c r="AN39" s="35"/>
-      <c r="AO39" s="35"/>
-      <c r="AP39" s="35"/>
-      <c r="AQ39" s="35"/>
-      <c r="AR39" s="35"/>
-      <c r="AS39" s="35"/>
-      <c r="AT39" s="35"/>
-      <c r="AU39" s="35"/>
-      <c r="AV39" s="35"/>
-      <c r="AW39" s="35"/>
-      <c r="AX39" s="35"/>
-      <c r="AY39" s="35"/>
-      <c r="AZ39" s="35"/>
-      <c r="BA39" s="35"/>
-      <c r="BB39" s="35"/>
-      <c r="BC39" s="35"/>
-      <c r="BD39" s="35"/>
-      <c r="BE39" s="35"/>
-      <c r="BF39" s="35"/>
-      <c r="BG39" s="35"/>
-      <c r="BH39" s="35"/>
-      <c r="BI39" s="35"/>
-      <c r="BJ39" s="35"/>
-      <c r="BK39" s="35"/>
-      <c r="BL39" s="35"/>
-      <c r="BM39" s="35"/>
-      <c r="BN39" s="35"/>
-      <c r="BO39" s="35"/>
-      <c r="BP39" s="35"/>
-      <c r="BQ39" s="35"/>
-      <c r="BR39" s="35"/>
-      <c r="BS39" s="35"/>
-      <c r="BT39" s="35"/>
-      <c r="BU39" s="35"/>
-      <c r="BV39" s="35"/>
-      <c r="BW39" s="35"/>
-      <c r="BX39" s="35"/>
-      <c r="BY39" s="35"/>
-      <c r="BZ39" s="35"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
@@ -5883,7 +4917,7 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D27">
+  <conditionalFormatting sqref="D7:D25">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5897,20 +4931,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL39">
-    <cfRule type="expression" dxfId="0" priority="41">
+  <conditionalFormatting sqref="I5:BZ37">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL39">
-    <cfRule type="expression" dxfId="71" priority="35">
+  <conditionalFormatting sqref="I7:BZ37">
+    <cfRule type="expression" dxfId="1" priority="35">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="36" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D33">
+  <conditionalFormatting sqref="D26:D31">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5924,33 +4958,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM5:BS39">
-    <cfRule type="expression" dxfId="15" priority="7">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM7:BS39">
-    <cfRule type="expression" dxfId="14" priority="5">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT5:BZ39">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT7:BZ39">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(task_start&lt;=BT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BT$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D39">
+  <conditionalFormatting sqref="D32:D37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5992,7 +5000,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D27</xm:sqref>
+          <xm:sqref>D7:D25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ECB4B3EC-4355-4FB1-A63C-A0FC7FC63356}">
@@ -6007,7 +5015,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D28:D33</xm:sqref>
+          <xm:sqref>D26:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D4E9B1E9-B081-46CF-BEA6-82974D6FE0D1}">
@@ -6022,7 +5030,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34:D39</xm:sqref>
+          <xm:sqref>D32:D37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
